--- a/assets/graph.xlsx
+++ b/assets/graph.xlsx
@@ -5,26 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maa/Apps/AsyncStorageTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maa/Apps/AsyncStorageTest/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E426624-1635-BF45-82EB-47DEBC17B048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66786D9-34A3-F44A-A58D-019FE396F8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="8120" windowWidth="18420" windowHeight="16040" xr2:uid="{91B53CCD-44E8-7342-BB59-3F4174A744C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$2:$B$17</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -139,7 +129,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
               <a:t>AsyncStorage Performance Test (write then read)</a:t>
             </a:r>
           </a:p>
@@ -377,7 +367,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>#recs '000</a:t>
+                  <a:t>array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> ('000)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -386,8 +384,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.84710506205846103"/>
-              <c:y val="0.7625072098544623"/>
+              <c:x val="0.75828074189840777"/>
+              <c:y val="0.7625070981937454"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1527,7 +1525,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
